--- a/wind_experiment/data/Wind_Arthropod_data_survey_1_May_10_2013.xlsx
+++ b/wind_experiment/data/Wind_Arthropod_data_survey_1_May_10_2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26122"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="15260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Survey_1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </definedNames>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="112">
   <si>
     <t>2 mines with exits; 2 LTF with exits; 1 of these LTFs fell and I dissected it (only frass and head molt); one old stem gall with a couple of possible parasitoid exit holes</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,10 +308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>all 6 LTFs with exit holes; no exits on tent mines...; possible that same larva could make multiple LTFs? Perhaps a previous tent mine that had an exit hole already dropped from the plant.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,10 +459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Calop_cocoon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -482,8 +474,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -517,16 +509,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,7 +547,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -878,17 +870,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z205" sqref="Z6:Z205"/>
+      <selection pane="bottomRight" activeCell="L179" sqref="L179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -903,7 +895,7 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -921,93 +913,93 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="242">
+    <row r="5" spans="1:31" ht="172" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="U5" s="3" t="s">
+      <c r="W5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>66</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -1015,10 +1007,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -1100,10 +1092,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -1185,10 +1177,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="5">
         <v>3</v>
@@ -1270,10 +1262,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="5">
         <v>4</v>
@@ -1357,10 +1349,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="D10" s="5">
         <v>5</v>
@@ -1444,10 +1436,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="5">
         <v>6</v>
@@ -1529,10 +1521,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="5">
         <v>7</v>
@@ -1614,10 +1606,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="6">
         <v>8</v>
@@ -1699,10 +1691,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="5">
         <v>9</v>
@@ -1786,10 +1778,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="5">
         <v>10</v>
@@ -1800,8 +1792,8 @@
       <c r="F15" s="5">
         <v>6</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>71</v>
+      <c r="G15" s="5">
+        <v>4</v>
       </c>
       <c r="H15" s="5">
         <v>0</v>
@@ -1873,10 +1865,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
@@ -1958,10 +1950,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" s="5">
         <v>2</v>
@@ -2043,10 +2035,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="5">
         <v>3</v>
@@ -2118,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
@@ -2130,10 +2122,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="5">
         <v>4</v>
@@ -2215,10 +2207,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="5">
         <v>5</v>
@@ -2302,10 +2294,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="5">
         <v>6</v>
@@ -2389,10 +2381,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="5">
         <v>7</v>
@@ -2476,10 +2468,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="5">
         <v>8</v>
@@ -2561,10 +2553,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="5">
         <v>9</v>
@@ -2648,10 +2640,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="5">
         <v>10</v>
@@ -2735,10 +2727,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
@@ -2820,10 +2812,10 @@
         <v>2</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="5">
         <v>2</v>
@@ -2905,10 +2897,10 @@
         <v>2</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="5">
         <v>3</v>
@@ -2990,10 +2982,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="5">
         <v>4</v>
@@ -3075,10 +3067,10 @@
         <v>2</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="D30" s="5">
         <v>5</v>
@@ -3160,10 +3152,10 @@
         <v>2</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="6">
         <v>6</v>
@@ -3245,10 +3237,10 @@
         <v>2</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="5">
         <v>7</v>
@@ -3330,10 +3322,10 @@
         <v>2</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" s="5">
         <v>8</v>
@@ -3417,10 +3409,10 @@
         <v>2</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D34" s="5">
         <v>9</v>
@@ -3502,10 +3494,10 @@
         <v>2</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35" s="6">
         <v>10</v>
@@ -3587,10 +3579,10 @@
         <v>2</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" s="6">
         <v>1</v>
@@ -3672,10 +3664,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D37" s="5">
         <v>2</v>
@@ -3759,10 +3751,10 @@
         <v>2</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D38" s="5">
         <v>3</v>
@@ -3844,10 +3836,10 @@
         <v>2</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D39" s="5">
         <v>4</v>
@@ -3931,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D40" s="5">
         <v>5</v>
@@ -4016,10 +4008,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D41" s="6">
         <v>6</v>
@@ -4101,10 +4093,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D42" s="5">
         <v>7</v>
@@ -4186,10 +4178,10 @@
         <v>2</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D43" s="5">
         <v>8</v>
@@ -4273,10 +4265,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="6">
         <v>9</v>
@@ -4360,10 +4352,10 @@
         <v>2</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="5">
         <v>10</v>
@@ -4447,10 +4439,10 @@
         <v>3</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -4534,10 +4526,10 @@
         <v>3</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D47" s="5">
         <v>2</v>
@@ -4619,10 +4611,10 @@
         <v>3</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D48" s="5">
         <v>3</v>
@@ -4704,10 +4696,10 @@
         <v>3</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D49" s="5">
         <v>4</v>
@@ -4791,10 +4783,10 @@
         <v>3</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D50" s="5">
         <v>5</v>
@@ -4876,10 +4868,10 @@
         <v>3</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D51" s="5">
         <v>6</v>
@@ -4963,10 +4955,10 @@
         <v>3</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" s="6">
         <v>7</v>
@@ -5048,10 +5040,10 @@
         <v>3</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="5">
         <v>8</v>
@@ -5133,10 +5125,10 @@
         <v>3</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="D54" s="5">
         <v>9</v>
@@ -5218,10 +5210,10 @@
         <v>3</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D55" s="5">
         <v>10</v>
@@ -5303,10 +5295,10 @@
         <v>3</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
@@ -5390,10 +5382,10 @@
         <v>3</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D57" s="5">
         <v>2</v>
@@ -5477,10 +5469,10 @@
         <v>3</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D58" s="5">
         <v>3</v>
@@ -5564,10 +5556,10 @@
         <v>3</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D59" s="5">
         <v>4</v>
@@ -5649,10 +5641,10 @@
         <v>3</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D60" s="6">
         <v>5</v>
@@ -5734,10 +5726,10 @@
         <v>3</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D61" s="5">
         <v>6</v>
@@ -5821,10 +5813,10 @@
         <v>3</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D62" s="5">
         <v>7</v>
@@ -5908,10 +5900,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="6">
         <v>8</v>
@@ -5993,10 +5985,10 @@
         <v>3</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D64" s="5">
         <v>9</v>
@@ -6080,10 +6072,10 @@
         <v>3</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D65" s="5">
         <v>10</v>
@@ -6165,10 +6157,10 @@
         <v>4</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D66" s="6">
         <v>1</v>
@@ -6250,10 +6242,10 @@
         <v>4</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D67" s="5">
         <v>2</v>
@@ -6335,10 +6327,10 @@
         <v>4</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D68" s="5">
         <v>3</v>
@@ -6422,10 +6414,10 @@
         <v>4</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D69" s="6">
         <v>4</v>
@@ -6507,10 +6499,10 @@
         <v>4</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D70" s="5">
         <v>5</v>
@@ -6594,10 +6586,10 @@
         <v>4</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="5">
         <v>6</v>
@@ -6681,10 +6673,10 @@
         <v>4</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D72" s="5">
         <v>7</v>
@@ -6766,10 +6758,10 @@
         <v>4</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D73" s="5">
         <v>8</v>
@@ -6851,10 +6843,10 @@
         <v>4</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="D74" s="5">
         <v>9</v>
@@ -6936,10 +6928,10 @@
         <v>4</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D75" s="6">
         <v>10</v>
@@ -7021,10 +7013,10 @@
         <v>4</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D76" s="5">
         <v>1</v>
@@ -7108,10 +7100,10 @@
         <v>4</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D77" s="5">
         <v>2</v>
@@ -7195,10 +7187,10 @@
         <v>4</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D78" s="5">
         <v>3</v>
@@ -7282,10 +7274,10 @@
         <v>4</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="5">
         <v>4</v>
@@ -7367,10 +7359,10 @@
         <v>4</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D80" s="5">
         <v>5</v>
@@ -7452,10 +7444,10 @@
         <v>4</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D81" s="6">
         <v>6</v>
@@ -7539,10 +7531,10 @@
         <v>4</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D82" s="6">
         <v>7</v>
@@ -7624,10 +7616,10 @@
         <v>4</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D83" s="5">
         <v>8</v>
@@ -7711,10 +7703,10 @@
         <v>4</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D84" s="5">
         <v>9</v>
@@ -7796,10 +7788,10 @@
         <v>4</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D85" s="5">
         <v>10</v>
@@ -7881,10 +7873,10 @@
         <v>5</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D86" s="5">
         <v>1</v>
@@ -7968,10 +7960,10 @@
         <v>5</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D87" s="5">
         <v>2</v>
@@ -8053,10 +8045,10 @@
         <v>5</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D88" s="5">
         <v>3</v>
@@ -8138,10 +8130,10 @@
         <v>5</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D89" s="6">
         <v>4</v>
@@ -8223,10 +8215,10 @@
         <v>5</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D90" s="5">
         <v>5</v>
@@ -8308,10 +8300,10 @@
         <v>5</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="5">
         <v>6</v>
@@ -8393,10 +8385,10 @@
         <v>5</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D92" s="6">
         <v>7</v>
@@ -8478,10 +8470,10 @@
         <v>5</v>
       </c>
       <c r="B93" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="D93" s="5">
         <v>8</v>
@@ -8563,10 +8555,10 @@
         <v>5</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D94" s="5">
         <v>9</v>
@@ -8650,10 +8642,10 @@
         <v>5</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D95" s="6">
         <v>10</v>
@@ -8735,10 +8727,10 @@
         <v>5</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D96" s="5">
         <v>1</v>
@@ -8820,10 +8812,10 @@
         <v>5</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D97" s="5">
         <v>2</v>
@@ -8905,10 +8897,10 @@
         <v>5</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D98" s="6">
         <v>3</v>
@@ -8990,10 +8982,10 @@
         <v>5</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="5">
         <v>4</v>
@@ -9075,10 +9067,10 @@
         <v>5</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D100" s="5">
         <v>5</v>
@@ -9162,10 +9154,10 @@
         <v>5</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D101" s="5">
         <v>6</v>
@@ -9247,10 +9239,10 @@
         <v>5</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D102" s="5">
         <v>7</v>
@@ -9332,10 +9324,10 @@
         <v>5</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D103" s="5">
         <v>8</v>
@@ -9419,10 +9411,10 @@
         <v>5</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D104" s="5">
         <v>9</v>
@@ -9504,10 +9496,10 @@
         <v>5</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D105" s="5">
         <v>10</v>
@@ -9591,10 +9583,10 @@
         <v>6</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D106" s="5">
         <v>1</v>
@@ -9676,10 +9668,10 @@
         <v>6</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D107" s="5">
         <v>2</v>
@@ -9763,10 +9755,10 @@
         <v>6</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D108" s="5">
         <v>3</v>
@@ -9848,10 +9840,10 @@
         <v>6</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D109" s="5">
         <v>4</v>
@@ -9933,10 +9925,10 @@
         <v>6</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D110" s="5">
         <v>5</v>
@@ -10018,10 +10010,10 @@
         <v>6</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D111" s="6">
         <v>6</v>
@@ -10103,10 +10095,10 @@
         <v>6</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="D112" s="5">
         <v>7</v>
@@ -10188,10 +10180,10 @@
         <v>6</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D113" s="6">
         <v>8</v>
@@ -10273,10 +10265,10 @@
         <v>6</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D114" s="6">
         <v>9</v>
@@ -10358,10 +10350,10 @@
         <v>6</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D115" s="6">
         <v>10</v>
@@ -10443,10 +10435,10 @@
         <v>6</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D116" s="5">
         <v>1</v>
@@ -10530,10 +10522,10 @@
         <v>6</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D117" s="5">
         <v>2</v>
@@ -10615,10 +10607,10 @@
         <v>6</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D118" s="6">
         <v>3</v>
@@ -10700,10 +10692,10 @@
         <v>6</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D119" s="5">
         <v>4</v>
@@ -10785,10 +10777,10 @@
         <v>6</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D120" s="5">
         <v>5</v>
@@ -10870,10 +10862,10 @@
         <v>6</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D121" s="5">
         <v>6</v>
@@ -10955,10 +10947,10 @@
         <v>6</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D122" s="6">
         <v>7</v>
@@ -11040,10 +11032,10 @@
         <v>6</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D123" s="5">
         <v>8</v>
@@ -11125,10 +11117,10 @@
         <v>6</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D124" s="5">
         <v>9</v>
@@ -11210,10 +11202,10 @@
         <v>6</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D125" s="5">
         <v>10</v>
@@ -11295,10 +11287,10 @@
         <v>7</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D126" s="5">
         <v>1</v>
@@ -11380,10 +11372,10 @@
         <v>7</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D127" s="5">
         <v>2</v>
@@ -11465,10 +11457,10 @@
         <v>7</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D128" s="5">
         <v>3</v>
@@ -11552,10 +11544,10 @@
         <v>7</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D129" s="5">
         <v>4</v>
@@ -11637,10 +11629,10 @@
         <v>7</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D130" s="5">
         <v>5</v>
@@ -11722,10 +11714,10 @@
         <v>7</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D131" s="6">
         <v>6</v>
@@ -11807,10 +11799,10 @@
         <v>7</v>
       </c>
       <c r="B132" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C132" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="D132" s="5">
         <v>7</v>
@@ -11894,10 +11886,10 @@
         <v>7</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D133" s="5">
         <v>8</v>
@@ -11979,10 +11971,10 @@
         <v>7</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D134" s="5">
         <v>9</v>
@@ -12064,10 +12056,10 @@
         <v>7</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D135" s="6">
         <v>10</v>
@@ -12151,10 +12143,10 @@
         <v>7</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D136" s="5">
         <v>1</v>
@@ -12236,10 +12228,10 @@
         <v>7</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D137" s="5">
         <v>2</v>
@@ -12321,10 +12313,10 @@
         <v>7</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D138" s="5">
         <v>3</v>
@@ -12408,10 +12400,10 @@
         <v>7</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D139" s="6">
         <v>4</v>
@@ -12493,10 +12485,10 @@
         <v>7</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D140" s="5">
         <v>5</v>
@@ -12580,10 +12572,10 @@
         <v>7</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D141" s="5">
         <v>6</v>
@@ -12667,10 +12659,10 @@
         <v>7</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D142" s="5">
         <v>7</v>
@@ -12754,10 +12746,10 @@
         <v>7</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D143" s="6">
         <v>8</v>
@@ -12839,10 +12831,10 @@
         <v>7</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D144" s="5">
         <v>9</v>
@@ -12924,10 +12916,10 @@
         <v>7</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D145" s="5">
         <v>10</v>
@@ -13009,10 +13001,10 @@
         <v>8</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D146" s="5">
         <v>1</v>
@@ -13094,10 +13086,10 @@
         <v>8</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D147" s="5">
         <v>2</v>
@@ -13181,10 +13173,10 @@
         <v>8</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D148" s="5">
         <v>3</v>
@@ -13268,10 +13260,10 @@
         <v>8</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D149" s="5">
         <v>4</v>
@@ -13353,10 +13345,10 @@
         <v>8</v>
       </c>
       <c r="B150" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="D150" s="5">
         <v>5</v>
@@ -13438,10 +13430,10 @@
         <v>8</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D151" s="6">
         <v>6</v>
@@ -13523,10 +13515,10 @@
         <v>8</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D152" s="5">
         <v>7</v>
@@ -13608,10 +13600,10 @@
         <v>8</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D153" s="5">
         <v>8</v>
@@ -13693,10 +13685,10 @@
         <v>8</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D154" s="6">
         <v>9</v>
@@ -13778,10 +13770,10 @@
         <v>8</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D155" s="5">
         <v>10</v>
@@ -13795,8 +13787,8 @@
       <c r="G155" s="5">
         <v>0</v>
       </c>
-      <c r="H155" s="5" t="s">
-        <v>110</v>
+      <c r="H155" s="5">
+        <v>1</v>
       </c>
       <c r="I155" s="5">
         <v>0</v>
@@ -13865,10 +13857,10 @@
         <v>8</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D156" s="5">
         <v>1</v>
@@ -13950,10 +13942,10 @@
         <v>8</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D157" s="5">
         <v>2</v>
@@ -14037,10 +14029,10 @@
         <v>8</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D158" s="5">
         <v>3</v>
@@ -14122,10 +14114,10 @@
         <v>8</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D159" s="5">
         <v>4</v>
@@ -14207,10 +14199,10 @@
         <v>8</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D160" s="5">
         <v>5</v>
@@ -14292,10 +14284,10 @@
         <v>8</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D161" s="5">
         <v>6</v>
@@ -14379,10 +14371,10 @@
         <v>8</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D162" s="5">
         <v>7</v>
@@ -14464,10 +14456,10 @@
         <v>8</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D163" s="8">
         <v>8</v>
@@ -14551,10 +14543,10 @@
         <v>8</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D164" s="6">
         <v>9</v>
@@ -14636,10 +14628,10 @@
         <v>8</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D165" s="8">
         <v>10</v>
@@ -14723,10 +14715,10 @@
         <v>9</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D166" s="8">
         <v>1</v>
@@ -14808,10 +14800,10 @@
         <v>9</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D167" s="6">
         <v>2</v>
@@ -14893,10 +14885,10 @@
         <v>9</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D168" s="8">
         <v>3</v>
@@ -14980,10 +14972,10 @@
         <v>9</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D169" s="6">
         <v>4</v>
@@ -15065,10 +15057,10 @@
         <v>9</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D170" s="8">
         <v>5</v>
@@ -15150,10 +15142,10 @@
         <v>9</v>
       </c>
       <c r="B171" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C171" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="D171" s="8">
         <v>6</v>
@@ -15235,10 +15227,10 @@
         <v>9</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D172" s="6">
         <v>7</v>
@@ -15320,10 +15312,10 @@
         <v>9</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D173" s="8">
         <v>8</v>
@@ -15407,10 +15399,10 @@
         <v>9</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D174" s="6">
         <v>9</v>
@@ -15492,10 +15484,10 @@
         <v>9</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D175" s="8">
         <v>10</v>
@@ -15579,10 +15571,10 @@
         <v>9</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D176" s="8">
         <v>1</v>
@@ -15666,10 +15658,10 @@
         <v>9</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D177" s="8">
         <v>2</v>
@@ -15751,10 +15743,10 @@
         <v>9</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D178" s="8">
         <v>3</v>
@@ -15838,10 +15830,10 @@
         <v>9</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D179" s="8">
         <v>4</v>
@@ -15855,8 +15847,8 @@
       <c r="G179" s="8">
         <v>0</v>
       </c>
-      <c r="H179" s="8" t="s">
-        <v>110</v>
+      <c r="H179" s="8">
+        <v>1</v>
       </c>
       <c r="I179" s="8">
         <v>0</v>
@@ -15925,10 +15917,10 @@
         <v>9</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D180" s="8">
         <v>5</v>
@@ -16010,10 +16002,10 @@
         <v>9</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D181" s="8">
         <v>6</v>
@@ -16095,10 +16087,10 @@
         <v>9</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D182" s="8">
         <v>7</v>
@@ -16182,10 +16174,10 @@
         <v>9</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D183" s="8">
         <v>8</v>
@@ -16267,10 +16259,10 @@
         <v>9</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D184" s="8">
         <v>9</v>
@@ -16354,10 +16346,10 @@
         <v>9</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D185" s="8">
         <v>10</v>
@@ -16441,10 +16433,10 @@
         <v>10</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D186" s="6">
         <v>1</v>
@@ -16526,10 +16518,10 @@
         <v>10</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D187" s="8">
         <v>2</v>
@@ -16611,10 +16603,10 @@
         <v>10</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D188" s="8">
         <v>3</v>
@@ -16696,10 +16688,10 @@
         <v>10</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D189" s="8">
         <v>4</v>
@@ -16781,10 +16773,10 @@
         <v>10</v>
       </c>
       <c r="B190" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C190" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="C190" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="D190" s="8">
         <v>5</v>
@@ -16866,10 +16858,10 @@
         <v>10</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D191" s="8">
         <v>6</v>
@@ -16951,10 +16943,10 @@
         <v>10</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D192" s="8">
         <v>7</v>
@@ -17036,10 +17028,10 @@
         <v>10</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D193" s="6">
         <v>8</v>
@@ -17121,10 +17113,10 @@
         <v>10</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D194" s="8">
         <v>9</v>
@@ -17206,10 +17198,10 @@
         <v>10</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D195" s="8">
         <v>10</v>
@@ -17291,10 +17283,10 @@
         <v>10</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D196" s="8">
         <v>1</v>
@@ -17376,10 +17368,10 @@
         <v>10</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D197" s="8">
         <v>2</v>
@@ -17463,10 +17455,10 @@
         <v>10</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D198" s="8">
         <v>3</v>
@@ -17550,10 +17542,10 @@
         <v>10</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D199" s="8">
         <v>4</v>
@@ -17637,10 +17629,10 @@
         <v>10</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D200" s="8">
         <v>5</v>
@@ -17722,10 +17714,10 @@
         <v>10</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D201" s="8">
         <v>6</v>
@@ -17809,10 +17801,10 @@
         <v>10</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D202" s="8">
         <v>7</v>
@@ -17896,10 +17888,10 @@
         <v>10</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D203" s="8">
         <v>8</v>
@@ -17981,10 +17973,10 @@
         <v>10</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D204" s="8">
         <v>9</v>
@@ -18066,10 +18058,10 @@
         <v>10</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D205" s="8">
         <v>10</v>
@@ -18149,14 +18141,12 @@
       <c r="AE205" s="8"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <autoFilter ref="A5:AE205"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
